--- a/Testdata/file_example_XLSX_10.xlsx
+++ b/Testdata/file_example_XLSX_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vignesh Chinnappa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vignesh Chinnappa\eclipse-workspace\Integration\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>First Name</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Weiland</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -456,7 +459,7 @@
     <col min="1" max="1024" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -501,8 +504,11 @@
       <c r="G2">
         <v>1562</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -525,7 +531,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -548,7 +554,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -571,7 +577,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -594,7 +600,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -617,7 +623,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -640,7 +646,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -663,7 +669,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
